--- a/cargohose_herren/cargohose_herren_st250_copy.xlsx
+++ b/cargohose_herren/cargohose_herren_st250_copy.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="160">
   <si>
     <t>group</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>ymd_HMS</t>
   </si>
   <si>
     <t>cargohose herren baggy cargohose herren sommer baumwolle cargohose herren lang sommer cargohose herren stretch übergröße cargohose herren schwarz chino cargohose herren sommer zip off cargohose herren schwarz lang cargohose herren baggy y2k</t>
@@ -517,7 +520,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,13 +531,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1008,148 +1004,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1158,7 +1154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1943,7 +1939,7 @@
   <dimension ref="A1:G110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1968,7 +1964,7 @@
         <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1982,16 +1978,16 @@
         <v>240</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2005,16 +2001,16 @@
         <v>231</v>
       </c>
       <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="E3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2028,16 +2024,16 @@
         <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2051,16 +2047,16 @@
         <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2074,16 +2070,16 @@
         <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2097,16 +2093,16 @@
         <v>236</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2120,16 +2116,16 @@
         <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2143,16 +2139,16 @@
         <v>229</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2166,16 +2162,16 @@
         <v>236</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2189,16 +2185,16 @@
         <v>244</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2212,16 +2208,16 @@
         <v>234</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2235,16 +2231,16 @@
         <v>232</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2258,16 +2254,16 @@
         <v>238</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2281,16 +2277,16 @@
         <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2304,16 +2300,16 @@
         <v>230</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2327,16 +2323,16 @@
         <v>236</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2350,16 +2346,16 @@
         <v>249</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2373,16 +2369,16 @@
         <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2396,16 +2392,16 @@
         <v>250</v>
       </c>
       <c r="D20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2419,16 +2415,16 @@
         <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2442,16 +2438,16 @@
         <v>242</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2465,16 +2461,16 @@
         <v>244</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2488,16 +2484,16 @@
         <v>243</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2511,16 +2507,16 @@
         <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2534,16 +2530,16 @@
         <v>232</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2557,16 +2553,16 @@
         <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2580,16 +2576,16 @@
         <v>239</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2603,16 +2599,16 @@
         <v>238</v>
       </c>
       <c r="D29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2626,16 +2622,16 @@
         <v>245</v>
       </c>
       <c r="D30" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2649,16 +2645,16 @@
         <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2672,16 +2668,16 @@
         <v>241</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2695,16 +2691,16 @@
         <v>243</v>
       </c>
       <c r="D33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2718,16 +2714,16 @@
         <v>242</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2741,16 +2737,16 @@
         <v>237</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2764,16 +2760,16 @@
         <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G36" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2787,16 +2783,16 @@
         <v>230</v>
       </c>
       <c r="D37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2810,16 +2806,16 @@
         <v>240</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2833,16 +2829,16 @@
         <v>239</v>
       </c>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2856,16 +2852,16 @@
         <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2879,16 +2875,16 @@
         <v>233</v>
       </c>
       <c r="D41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2902,16 +2898,16 @@
         <v>244</v>
       </c>
       <c r="D42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2925,16 +2921,16 @@
         <v>240</v>
       </c>
       <c r="D43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2948,16 +2944,16 @@
         <v>234</v>
       </c>
       <c r="D44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2971,16 +2967,16 @@
         <v>242</v>
       </c>
       <c r="D45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2994,16 +2990,16 @@
         <v>234</v>
       </c>
       <c r="D46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3017,16 +3013,16 @@
         <v>245</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3040,16 +3036,16 @@
         <v>242</v>
       </c>
       <c r="D48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G48" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3063,16 +3059,16 @@
         <v>245</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3086,16 +3082,16 @@
         <v>239</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3109,16 +3105,16 @@
         <v>241</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3132,16 +3128,16 @@
         <v>246</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G52" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3155,16 +3151,16 @@
         <v>246</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G53" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3178,16 +3174,16 @@
         <v>246</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G54" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3201,16 +3197,16 @@
         <v>234</v>
       </c>
       <c r="D55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G55" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3224,16 +3220,16 @@
         <v>249</v>
       </c>
       <c r="D56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3247,16 +3243,16 @@
         <v>242</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3270,16 +3266,16 @@
         <v>245</v>
       </c>
       <c r="D58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G58" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3293,16 +3289,16 @@
         <v>243</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3316,16 +3312,16 @@
         <v>229</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3339,16 +3335,16 @@
         <v>250</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3362,16 +3358,16 @@
         <v>239</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3385,16 +3381,16 @@
         <v>241</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3408,16 +3404,16 @@
         <v>249</v>
       </c>
       <c r="D64" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3431,16 +3427,16 @@
         <v>243</v>
       </c>
       <c r="D65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3454,16 +3450,16 @@
         <v>248</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3477,16 +3473,16 @@
         <v>239</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3500,16 +3496,16 @@
         <v>246</v>
       </c>
       <c r="D68" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3523,16 +3519,16 @@
         <v>239</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3546,16 +3542,16 @@
         <v>235</v>
       </c>
       <c r="D70" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3569,16 +3565,16 @@
         <v>240</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3592,16 +3588,16 @@
         <v>242</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G72" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3615,16 +3611,16 @@
         <v>229</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3638,16 +3634,16 @@
         <v>241</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G74" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3661,16 +3657,16 @@
         <v>248</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F75" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G75" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3684,16 +3680,16 @@
         <v>249</v>
       </c>
       <c r="D76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G76" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3707,16 +3703,16 @@
         <v>241</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G77" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3730,16 +3726,16 @@
         <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3753,16 +3749,16 @@
         <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3776,16 +3772,16 @@
         <v>237</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F80" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G80" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3799,16 +3795,16 @@
         <v>228</v>
       </c>
       <c r="D81" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3822,16 +3818,16 @@
         <v>240</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F82" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3845,16 +3841,16 @@
         <v>239</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G83" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3868,16 +3864,16 @@
         <v>244</v>
       </c>
       <c r="D84" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G84" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3891,16 +3887,16 @@
         <v>226</v>
       </c>
       <c r="D85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3914,16 +3910,16 @@
         <v>236</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3937,16 +3933,16 @@
         <v>238</v>
       </c>
       <c r="D87" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3960,16 +3956,16 @@
         <v>242</v>
       </c>
       <c r="D88" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3983,16 +3979,16 @@
         <v>248</v>
       </c>
       <c r="D89" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4006,16 +4002,16 @@
         <v>241</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G90" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4029,16 +4025,16 @@
         <v>238</v>
       </c>
       <c r="D91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G91" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4052,16 +4048,16 @@
         <v>248</v>
       </c>
       <c r="D92" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4075,16 +4071,16 @@
         <v>237</v>
       </c>
       <c r="D93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F93" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G93" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4098,16 +4094,16 @@
         <v>245</v>
       </c>
       <c r="D94" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G94" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4121,16 +4117,16 @@
         <v>239</v>
       </c>
       <c r="D95" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G95" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4144,16 +4140,16 @@
         <v>236</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F96" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G96" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4167,16 +4163,16 @@
         <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F97" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G97" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4190,16 +4186,16 @@
         <v>245</v>
       </c>
       <c r="D98" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F98" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G98" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4213,16 +4209,16 @@
         <v>239</v>
       </c>
       <c r="D99" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F99" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G99" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4236,16 +4232,16 @@
         <v>248</v>
       </c>
       <c r="D100" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F100" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G100" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4259,16 +4255,16 @@
         <v>243</v>
       </c>
       <c r="D101" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G101" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4282,16 +4278,16 @@
         <v>238</v>
       </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F102" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4305,16 +4301,16 @@
         <v>246</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F103" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G103" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4328,16 +4324,16 @@
         <v>233</v>
       </c>
       <c r="D104" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F104" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G104" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4351,16 +4347,16 @@
         <v>234</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F105" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G105" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4374,16 +4370,16 @@
         <v>246</v>
       </c>
       <c r="D106" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F106" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G106" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4397,16 +4393,16 @@
         <v>247</v>
       </c>
       <c r="D107" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G107" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4420,16 +4416,16 @@
         <v>245</v>
       </c>
       <c r="D108" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F108" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G108" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4443,16 +4439,16 @@
         <v>242</v>
       </c>
       <c r="D109" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F109" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G109" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4466,16 +4462,16 @@
         <v>241</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F110" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G110" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
